--- a/src/SimpleKnowledgeSenotype_VS.xlsx
+++ b/src/SimpleKnowledgeSenotype_VS.xlsx
@@ -8,20 +8,20 @@
     <sheet state="visible" name="SetupInstructions" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_2A72119E_4B28_4357_BC56_4032C4DB6DEE_.wvu.FilterData">SimpleKnowledgeEditor!$A$1:$A$729</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_1FC2399A_5D6B_4CB5_AEDD_F80E530AD113_.wvu.FilterData">SimpleKnowledgeEditor!$A$1:$F$460</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_1FC2399A_5D6B_4CB5_AEDD_F80E530AD113_.wvu.FilterData">'DEMO SimpleKnowledgeEditor'!$A$1:$R$175</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_3BA751B5_C246_45FF_8875_ED20DA423AE6_.wvu.FilterData">SimpleKnowledgeEditor!$A$1:$F$459</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_3BA751B5_C246_45FF_8875_ED20DA423AE6_.wvu.FilterData">'DEMO SimpleKnowledgeEditor'!$A$1:$R$175</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_BF3E722F_925E_429A_8E33_9B7692A84B21_.wvu.FilterData">SimpleKnowledgeEditor!$A$1:$A$728</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{1FC2399A-5D6B-4CB5-AEDD-F80E530AD113}" name="marker"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{2A72119E-4B28-4357-BC56-4032C4DB6DEE}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3BA751B5-C246-45FF-8875-ED20DA423AE6}" name="marker"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{BF3E722F-925E-429A-8E33-9B7692A84B21}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="98">
   <si>
     <t>term</t>
   </si>
@@ -120,45 +120,6 @@
   </si>
   <si>
     <t>SENOTYPE_VS:C00500</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>SENOTYPE_VS:C00501</t>
-  </si>
-  <si>
-    <t>SNOMEDCT_US:397669002</t>
-  </si>
-  <si>
-    <t>submitter</t>
-  </si>
-  <si>
-    <t>SENOTYPE_VS:C00600</t>
-  </si>
-  <si>
-    <t>submitter_info</t>
-  </si>
-  <si>
-    <t>SENOTYPE_VS:C00601</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>SENOTYPE_VS:C00602</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>SENOTYPE_VS:C00603</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>SENOTYPE_VS:C00604</t>
   </si>
   <si>
     <t>isa</t>
@@ -1006,20 +967,12 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="8"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="11"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -1030,18 +983,12 @@
       <c r="N12" s="10"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="8"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="F13" s="7"/>
       <c r="G13" s="11"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -1052,20 +999,14 @@
       <c r="N13" s="10"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="8"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="10"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -1074,18 +1015,12 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="8"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="10"/>
@@ -1096,18 +1031,12 @@
       <c r="N15" s="10"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="8"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="10"/>
@@ -1118,18 +1047,12 @@
       <c r="N16" s="10"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="8"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="F17" s="7"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="10"/>
@@ -1290,8 +1213,8 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
@@ -1734,7 +1657,7 @@
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="8"/>
+      <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
@@ -1750,7 +1673,7 @@
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
+      <c r="C56" s="8"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
@@ -2295,7 +2218,7 @@
       <c r="A90" s="1"/>
       <c r="B90" s="6"/>
       <c r="C90" s="8"/>
-      <c r="D90" s="7"/>
+      <c r="D90" s="8"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="13"/>
@@ -2311,7 +2234,7 @@
       <c r="A91" s="1"/>
       <c r="B91" s="6"/>
       <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
+      <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
       <c r="G91" s="13"/>
@@ -2519,7 +2442,7 @@
       <c r="A104" s="1"/>
       <c r="B104" s="6"/>
       <c r="C104" s="8"/>
-      <c r="D104" s="7"/>
+      <c r="D104" s="8"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
       <c r="G104" s="13"/>
@@ -2535,7 +2458,7 @@
       <c r="A105" s="1"/>
       <c r="B105" s="6"/>
       <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
+      <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
       <c r="G105" s="13"/>
@@ -3447,7 +3370,7 @@
       <c r="A162" s="1"/>
       <c r="B162" s="6"/>
       <c r="C162" s="8"/>
-      <c r="D162" s="7"/>
+      <c r="D162" s="8"/>
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
       <c r="G162" s="13"/>
@@ -8212,14 +8135,14 @@
       <c r="N459" s="10"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="1"/>
-      <c r="B460" s="6"/>
+      <c r="A460" s="14"/>
+      <c r="B460" s="15"/>
       <c r="C460" s="8"/>
       <c r="D460" s="8"/>
-      <c r="E460" s="7"/>
-      <c r="F460" s="7"/>
-      <c r="G460" s="13"/>
-      <c r="H460" s="13"/>
+      <c r="E460" s="8"/>
+      <c r="F460" s="8"/>
+      <c r="G460" s="10"/>
+      <c r="H460" s="10"/>
       <c r="I460" s="10"/>
       <c r="J460" s="10"/>
       <c r="K460" s="10"/>
@@ -12515,56 +12438,38 @@
       <c r="M728" s="10"/>
       <c r="N728" s="10"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="14"/>
-      <c r="B729" s="15"/>
-      <c r="C729" s="8"/>
-      <c r="D729" s="8"/>
-      <c r="E729" s="8"/>
-      <c r="F729" s="8"/>
-      <c r="G729" s="10"/>
-      <c r="H729" s="10"/>
-      <c r="I729" s="10"/>
-      <c r="J729" s="10"/>
-      <c r="K729" s="10"/>
-      <c r="L729" s="10"/>
-      <c r="M729" s="10"/>
-      <c r="N729" s="10"/>
-    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{2A72119E-4B28-4357-BC56-4032C4DB6DEE}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$A$729"/>
+    <customSheetView guid="{BF3E722F-925E-429A-8E33-9B7692A84B21}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$A$728"/>
     </customSheetView>
-    <customSheetView guid="{1FC2399A-5D6B-4CB5-AEDD-F80E530AD113}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$F$460">
+    <customSheetView guid="{3BA751B5-C246-45FF-8875-ED20DA423AE6}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$F$459">
         <filterColumn colId="5">
           <filters>
             <filter val="inducer"/>
             <filter val="observable"/>
-            <filter val="context"/>
             <filter val="Senotype Ontology"/>
-            <filter val="submitter_info"/>
           </filters>
         </filterColumn>
       </autoFilter>
     </customSheetView>
   </customSheetViews>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="F2:N8 G9:N10 F11:N729">
-      <formula1>IF(SUM(ArrayFormula(COUNTIF(SPLIT(F2,","), $A$1:$A729)))-(LEN(F2)-LEN(SUBSTITUTE(F2,",",""))+1)=0,TRUE,FALSE)</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="F2:N8 G9:N10 F11:N728">
+      <formula1>IF(SUM(ArrayFormula(COUNTIF(SPLIT(F2,","), $A$1:$A728)))-(LEN(F2)-LEN(SUBSTITUTE(F2,",",""))+1)=0,TRUE,FALSE)</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B33">
-      <formula1>COUNTIF($B$1:$B729, #REF!)&lt;=1</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B32">
+      <formula1>COUNTIF($B$1:$B728, #REF!)&lt;=1</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="C1:N1">
       <formula1>COUNTIF($A$1:N$1, C1)&lt;=1</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="F9:F10 A1:A729">
-      <formula1>COUNTIF($A$1:$A729, A1)&lt;=1</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="F9:F10 A1:A728">
+      <formula1>COUNTIF($A$1:$A728, A1)&lt;=1</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B1:B32 B34:B729">
-      <formula1>COUNTIF($B$1:$B729, B1)&lt;=1</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B1:B31 B33:B728">
+      <formula1>COUNTIF($B$1:$B728, B1)&lt;=1</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -12624,10 +12529,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -12655,13 +12560,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -12693,18 +12598,18 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="19"/>
@@ -12733,22 +12638,22 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="19"/>
@@ -12777,18 +12682,18 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="6" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="20" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="19"/>
@@ -12817,18 +12722,18 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="22" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="19"/>
@@ -12857,18 +12762,18 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="20" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="19"/>
@@ -12897,16 +12802,16 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="23"/>
       <c r="F8" s="20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="19"/>
@@ -12935,21 +12840,21 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="20" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -12977,16 +12882,16 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="24"/>
       <c r="E10" s="23"/>
       <c r="F10" s="20" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="19"/>
@@ -13015,16 +12920,16 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="20" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="19"/>
@@ -13053,16 +12958,16 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="6"/>
       <c r="E12" s="15"/>
       <c r="F12" s="20" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="19"/>
@@ -13091,16 +12996,16 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="19"/>
@@ -13129,16 +13034,16 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="15"/>
       <c r="F14" s="20" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="19"/>
@@ -13167,16 +13072,16 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="20" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="19"/>
@@ -44852,7 +44757,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{1FC2399A-5D6B-4CB5-AEDD-F80E530AD113}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{3BA751B5-C246-45FF-8875-ED20DA423AE6}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$R$175">
         <filterColumn colId="5">
           <filters>
@@ -44905,7 +44810,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="32"/>
@@ -44935,7 +44840,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="34"/>
@@ -44965,7 +44870,7 @@
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="34"/>
@@ -44995,7 +44900,7 @@
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
@@ -45025,7 +44930,7 @@
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="32"/>
@@ -45055,7 +44960,7 @@
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="32"/>
@@ -45113,7 +45018,7 @@
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="32"/>
@@ -45143,7 +45048,7 @@
     </row>
     <row r="9">
       <c r="A9" s="35" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="32"/>
@@ -45173,7 +45078,7 @@
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="32"/>
@@ -45203,7 +45108,7 @@
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="32"/>
@@ -45261,7 +45166,7 @@
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B13" s="31"/>
       <c r="C13" s="32"/>
@@ -45291,7 +45196,7 @@
     </row>
     <row r="14">
       <c r="A14" s="35" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="32"/>
@@ -45321,7 +45226,7 @@
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="32"/>
@@ -45379,7 +45284,7 @@
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B17" s="31"/>
       <c r="C17" s="32"/>
@@ -45409,7 +45314,7 @@
     </row>
     <row r="18">
       <c r="A18" s="35" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="32"/>
@@ -45439,7 +45344,7 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B19" s="31"/>
       <c r="C19" s="32"/>
@@ -45497,7 +45402,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
@@ -45527,7 +45432,7 @@
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="32"/>
@@ -45557,7 +45462,7 @@
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
@@ -45587,7 +45492,7 @@
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B24" s="31"/>
       <c r="C24" s="32"/>
@@ -45617,7 +45522,7 @@
     </row>
     <row r="25">
       <c r="A25" s="13" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="32"/>
@@ -45647,7 +45552,7 @@
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B26" s="31"/>
       <c r="C26" s="32"/>
@@ -45677,7 +45582,7 @@
     </row>
     <row r="27">
       <c r="A27" s="13" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B27" s="31"/>
       <c r="C27" s="32"/>
@@ -45735,7 +45640,7 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B29" s="31"/>
       <c r="C29" s="32"/>
@@ -45780,7 +45685,7 @@
         <v>4</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
@@ -45805,13 +45710,13 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
@@ -45839,18 +45744,18 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="36" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
@@ -45875,22 +45780,22 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
@@ -45915,18 +45820,18 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="13" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="36" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
@@ -45951,18 +45856,18 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
@@ -45987,18 +45892,18 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D36" s="36"/>
       <c r="E36" s="36"/>
       <c r="F36" s="36" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>

--- a/src/SimpleKnowledgeSenotype_VS.xlsx
+++ b/src/SimpleKnowledgeSenotype_VS.xlsx
@@ -8,20 +8,20 @@
     <sheet state="visible" name="SetupInstructions" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_3BA751B5_C246_45FF_8875_ED20DA423AE6_.wvu.FilterData">SimpleKnowledgeEditor!$A$1:$F$459</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_3BA751B5_C246_45FF_8875_ED20DA423AE6_.wvu.FilterData">'DEMO SimpleKnowledgeEditor'!$A$1:$R$175</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_BF3E722F_925E_429A_8E33_9B7692A84B21_.wvu.FilterData">SimpleKnowledgeEditor!$A$1:$A$728</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_EFF055F0_C45E_4D99_82AE_D1BEC683340F_.wvu.FilterData">SimpleKnowledgeEditor!$A$1:$F$460</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_EFF055F0_C45E_4D99_82AE_D1BEC683340F_.wvu.FilterData">'DEMO SimpleKnowledgeEditor'!$A$1:$R$175</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_AA23194E_D90F_43A5_8517_E23FF86E3C8C_.wvu.FilterData">SimpleKnowledgeEditor!$A$1:$A$729</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3BA751B5-C246-45FF-8875-ED20DA423AE6}" name="marker"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{BF3E722F-925E-429A-8E33-9B7692A84B21}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{EFF055F0-C45E-4D99-82AE-D1BEC683340F}" name="marker"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AA23194E-D90F-43A5-8517-E23FF86E3C8C}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="101">
   <si>
     <t>term</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>SENOTYPE_VS:C00500</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>SENOTYPE_VS:C00501</t>
+  </si>
+  <si>
+    <t>SNOMEDCT_US:397669002</t>
   </si>
   <si>
     <t>isa</t>
@@ -967,12 +976,20 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="G12" s="11"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -1005,8 +1022,8 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -1213,8 +1230,8 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
@@ -1657,7 +1674,7 @@
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="7"/>
+      <c r="C55" s="8"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
@@ -1673,7 +1690,7 @@
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="8"/>
+      <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
@@ -2218,7 +2235,7 @@
       <c r="A90" s="1"/>
       <c r="B90" s="6"/>
       <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
+      <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="13"/>
@@ -2234,7 +2251,7 @@
       <c r="A91" s="1"/>
       <c r="B91" s="6"/>
       <c r="C91" s="8"/>
-      <c r="D91" s="7"/>
+      <c r="D91" s="8"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
       <c r="G91" s="13"/>
@@ -2442,7 +2459,7 @@
       <c r="A104" s="1"/>
       <c r="B104" s="6"/>
       <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
+      <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
       <c r="G104" s="13"/>
@@ -2458,7 +2475,7 @@
       <c r="A105" s="1"/>
       <c r="B105" s="6"/>
       <c r="C105" s="8"/>
-      <c r="D105" s="7"/>
+      <c r="D105" s="8"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
       <c r="G105" s="13"/>
@@ -3370,7 +3387,7 @@
       <c r="A162" s="1"/>
       <c r="B162" s="6"/>
       <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
+      <c r="D162" s="7"/>
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
       <c r="G162" s="13"/>
@@ -8135,14 +8152,14 @@
       <c r="N459" s="10"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="14"/>
-      <c r="B460" s="15"/>
+      <c r="A460" s="1"/>
+      <c r="B460" s="6"/>
       <c r="C460" s="8"/>
       <c r="D460" s="8"/>
-      <c r="E460" s="8"/>
-      <c r="F460" s="8"/>
-      <c r="G460" s="10"/>
-      <c r="H460" s="10"/>
+      <c r="E460" s="7"/>
+      <c r="F460" s="7"/>
+      <c r="G460" s="13"/>
+      <c r="H460" s="13"/>
       <c r="I460" s="10"/>
       <c r="J460" s="10"/>
       <c r="K460" s="10"/>
@@ -12438,17 +12455,34 @@
       <c r="M728" s="10"/>
       <c r="N728" s="10"/>
     </row>
+    <row r="729" ht="15.75" customHeight="1">
+      <c r="A729" s="14"/>
+      <c r="B729" s="15"/>
+      <c r="C729" s="8"/>
+      <c r="D729" s="8"/>
+      <c r="E729" s="8"/>
+      <c r="F729" s="8"/>
+      <c r="G729" s="10"/>
+      <c r="H729" s="10"/>
+      <c r="I729" s="10"/>
+      <c r="J729" s="10"/>
+      <c r="K729" s="10"/>
+      <c r="L729" s="10"/>
+      <c r="M729" s="10"/>
+      <c r="N729" s="10"/>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{BF3E722F-925E-429A-8E33-9B7692A84B21}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$A$728"/>
+    <customSheetView guid="{AA23194E-D90F-43A5-8517-E23FF86E3C8C}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$A$729"/>
     </customSheetView>
-    <customSheetView guid="{3BA751B5-C246-45FF-8875-ED20DA423AE6}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$F$459">
+    <customSheetView guid="{EFF055F0-C45E-4D99-82AE-D1BEC683340F}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$F$460">
         <filterColumn colId="5">
           <filters>
             <filter val="inducer"/>
             <filter val="observable"/>
+            <filter val="context"/>
             <filter val="Senotype Ontology"/>
           </filters>
         </filterColumn>
@@ -12456,20 +12490,20 @@
     </customSheetView>
   </customSheetViews>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="F2:N8 G9:N10 F11:N728">
-      <formula1>IF(SUM(ArrayFormula(COUNTIF(SPLIT(F2,","), $A$1:$A728)))-(LEN(F2)-LEN(SUBSTITUTE(F2,",",""))+1)=0,TRUE,FALSE)</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="F2:N8 G9:N10 F11:N729">
+      <formula1>IF(SUM(ArrayFormula(COUNTIF(SPLIT(F2,","), $A$1:$A729)))-(LEN(F2)-LEN(SUBSTITUTE(F2,",",""))+1)=0,TRUE,FALSE)</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B32">
-      <formula1>COUNTIF($B$1:$B728, #REF!)&lt;=1</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B33">
+      <formula1>COUNTIF($B$1:$B729, #REF!)&lt;=1</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="C1:N1">
       <formula1>COUNTIF($A$1:N$1, C1)&lt;=1</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="F9:F10 A1:A728">
-      <formula1>COUNTIF($A$1:$A728, A1)&lt;=1</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="F9:F10 A1:A729">
+      <formula1>COUNTIF($A$1:$A729, A1)&lt;=1</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B1:B31 B33:B728">
-      <formula1>COUNTIF($B$1:$B728, B1)&lt;=1</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B1:B32 B34:B729">
+      <formula1>COUNTIF($B$1:$B729, B1)&lt;=1</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -12529,10 +12563,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -12560,13 +12594,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -12598,18 +12632,18 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="19"/>
@@ -12638,22 +12672,22 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="19"/>
@@ -12682,18 +12716,18 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="19"/>
@@ -12722,18 +12756,18 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="19"/>
@@ -12762,18 +12796,18 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="19"/>
@@ -12802,16 +12836,16 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="23"/>
       <c r="F8" s="20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="19"/>
@@ -12840,21 +12874,21 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -12882,16 +12916,16 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="24"/>
       <c r="E10" s="23"/>
       <c r="F10" s="20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="19"/>
@@ -12920,16 +12954,16 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="19"/>
@@ -12958,16 +12992,16 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="6"/>
       <c r="E12" s="15"/>
       <c r="F12" s="20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="19"/>
@@ -12996,16 +13030,16 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="19"/>
@@ -13034,16 +13068,16 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="15"/>
       <c r="F14" s="20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="19"/>
@@ -13072,16 +13106,16 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="19"/>
@@ -44757,7 +44791,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3BA751B5-C246-45FF-8875-ED20DA423AE6}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{EFF055F0-C45E-4D99-82AE-D1BEC683340F}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$R$175">
         <filterColumn colId="5">
           <filters>
@@ -44810,7 +44844,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="32"/>
@@ -44840,7 +44874,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="34"/>
@@ -44870,7 +44904,7 @@
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="34"/>
@@ -44900,7 +44934,7 @@
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
@@ -44930,7 +44964,7 @@
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="32"/>
@@ -44960,7 +44994,7 @@
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="32"/>
@@ -45018,7 +45052,7 @@
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="32"/>
@@ -45048,7 +45082,7 @@
     </row>
     <row r="9">
       <c r="A9" s="35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="32"/>
@@ -45078,7 +45112,7 @@
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="32"/>
@@ -45108,7 +45142,7 @@
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="32"/>
@@ -45166,7 +45200,7 @@
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B13" s="31"/>
       <c r="C13" s="32"/>
@@ -45196,7 +45230,7 @@
     </row>
     <row r="14">
       <c r="A14" s="35" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="32"/>
@@ -45226,7 +45260,7 @@
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="32"/>
@@ -45284,7 +45318,7 @@
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B17" s="31"/>
       <c r="C17" s="32"/>
@@ -45314,7 +45348,7 @@
     </row>
     <row r="18">
       <c r="A18" s="35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="32"/>
@@ -45344,7 +45378,7 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B19" s="31"/>
       <c r="C19" s="32"/>
@@ -45402,7 +45436,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
@@ -45432,7 +45466,7 @@
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="32"/>
@@ -45462,7 +45496,7 @@
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
@@ -45492,7 +45526,7 @@
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B24" s="31"/>
       <c r="C24" s="32"/>
@@ -45522,7 +45556,7 @@
     </row>
     <row r="25">
       <c r="A25" s="13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="32"/>
@@ -45552,7 +45586,7 @@
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B26" s="31"/>
       <c r="C26" s="32"/>
@@ -45582,7 +45616,7 @@
     </row>
     <row r="27">
       <c r="A27" s="13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B27" s="31"/>
       <c r="C27" s="32"/>
@@ -45640,7 +45674,7 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B29" s="31"/>
       <c r="C29" s="32"/>
@@ -45685,7 +45719,7 @@
         <v>4</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
@@ -45710,13 +45744,13 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
@@ -45744,18 +45778,18 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
@@ -45780,22 +45814,22 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
@@ -45820,18 +45854,18 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
@@ -45856,18 +45890,18 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
@@ -45892,18 +45926,18 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D36" s="36"/>
       <c r="E36" s="36"/>
       <c r="F36" s="36" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>

--- a/src/SimpleKnowledgeSenotype_VS.xlsx
+++ b/src/SimpleKnowledgeSenotype_VS.xlsx
@@ -8,14 +8,14 @@
     <sheet state="visible" name="SetupInstructions" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_EFF055F0_C45E_4D99_82AE_D1BEC683340F_.wvu.FilterData">SimpleKnowledgeEditor!$A$1:$F$460</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_EFF055F0_C45E_4D99_82AE_D1BEC683340F_.wvu.FilterData">'DEMO SimpleKnowledgeEditor'!$A$1:$R$175</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_AA23194E_D90F_43A5_8517_E23FF86E3C8C_.wvu.FilterData">SimpleKnowledgeEditor!$A$1:$A$729</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_AFCD8109_E1A5_4715_9B2B_D88AA94A076E_.wvu.FilterData">SimpleKnowledgeEditor!$A$1:$A$729</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_D504216E_EE8F_4E15_A340_7163B68BD604_.wvu.FilterData">SimpleKnowledgeEditor!$A$1:$F$460</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_D504216E_EE8F_4E15_A340_7163B68BD604_.wvu.FilterData">'DEMO SimpleKnowledgeEditor'!$A$1:$R$175</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{EFF055F0-C45E-4D99-82AE-D1BEC683340F}" name="marker"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AA23194E-D90F-43A5-8517-E23FF86E3C8C}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D504216E-EE8F-4E15-A340-7163B68BD604}" name="marker"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AFCD8109-E1A5-4715-9B2B-D88AA94A076E}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">isa </t>
   </si>
   <si>
-    <t>Senotype Ontology</t>
+    <t>SENOTYPE_VS</t>
   </si>
   <si>
     <t>SENOTYPE_VS:C00000</t>
@@ -936,11 +936,11 @@
       <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
         <v>26</v>
       </c>
@@ -12473,17 +12473,17 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AA23194E-D90F-43A5-8517-E23FF86E3C8C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AFCD8109-E1A5-4715-9B2B-D88AA94A076E}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$A$729"/>
     </customSheetView>
-    <customSheetView guid="{EFF055F0-C45E-4D99-82AE-D1BEC683340F}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D504216E-EE8F-4E15-A340-7163B68BD604}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$F$460">
         <filterColumn colId="5">
           <filters>
             <filter val="inducer"/>
+            <filter val="SENOTYPE_VS"/>
             <filter val="observable"/>
             <filter val="context"/>
-            <filter val="Senotype Ontology"/>
           </filters>
         </filterColumn>
       </autoFilter>
@@ -44791,7 +44791,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{EFF055F0-C45E-4D99-82AE-D1BEC683340F}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D504216E-EE8F-4E15-A340-7163B68BD604}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$R$175">
         <filterColumn colId="5">
           <filters>
